--- a/pred_ohlcv/54_21/2020-01-19 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 MTL ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-153513.20066259</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-153513.20066259</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-189444.1739625901</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-330354.9109040201</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-326091.9880040201</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-325352.6013040202</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-324648.9544040202</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-324294.8420040202</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-323251.2473040202</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-329076.20604764</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-329076.20604764</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-324684.33894764</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-321849.85264764</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-322324.95024764</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-322324.95024764</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-348941.18879333</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-348314.4806933301</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-345530.7097933301</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-346603.0472933301</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-346603.0472933301</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-341276.4590933301</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-341276.4590933301</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-341276.4590933301</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-341642.9703933301</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-341639.9703933301</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-359374.2400813001</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-363095.1547813001</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-363095.1547813001</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-363095.1547813001</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-363095.1547813001</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-362109.0833813001</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-362109.0833813001</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-361412.8241813001</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-359880.2897813001</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-360234.5526813001</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-360221.5911813001</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-443681.4387684902</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-547651.9637530003</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-550180.9045530002</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-534245.0884530002</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-541811.3423530002</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-566419.82535667</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-569842.3569566699</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-569837.3569566699</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-570337.3569566699</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-570337.3569566699</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-570322.48266377</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-572418.0056289001</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-572418.0056289001</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-572418.0056289001</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-572418.0056289001</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-572438.0056289001</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-570404.4269289002</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-570389.4269289002</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-570389.4269289002</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-570362.4269289002</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-570132.6755289001</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-570749.7434289001</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-570737.7796229301</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-570739.7796229301</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-570739.7796229301</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-563575.4196229301</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-563577.4196229301</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-571770.8801229302</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-586943.5467229302</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-586938.5467229302</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-586933.5467229302</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-586933.5467229302</v>
       </c>
       <c r="H492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-586933.5467229302</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-586933.5467229302</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-586933.5467229302</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-586344.9469707701</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-586344.9469707701</v>
       </c>
       <c r="H497">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-589444.9053707701</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-589544.9053707701</v>
       </c>
       <c r="H499">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-589543.0493707701</v>
       </c>
       <c r="H500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-589543.0493707701</v>
       </c>
       <c r="H501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-570476.7866707701</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-571008.9866707701</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-571247.7117707701</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-571232.7117707701</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-586866.1522707702</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-579690.3099707701</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-576460.0519382301</v>
       </c>
       <c r="H522">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-684979.0341382301</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-684979.0341382301</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-685179.0341382301</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-702486.2049382301</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-723500.3032382298</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-723500.3032382298</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-687518.4932382298</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-687518.4932382298</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-687518.4932382298</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-625943.3559382298</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-631288.4648382298</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-635191.7630382298</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-641687.0465382298</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-654973.0951382298</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-654811.2849382298</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-654811.2849382298</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-780758.77173823</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-775459.70493823</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-775459.70493823</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-775459.70493823</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-772711.59543823</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-853826.2208382299</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-861285.1548382299</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-825335.9320382299</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-825335.9320382299</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-841232.05123823</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-839232.05123823</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-852051.82733823</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-851161.11773823</v>
       </c>
       <c r="H680">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-849126.6353382301</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-871090.8975382301</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-870879.1607382301</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-864317.19763823</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-864317.19763823</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-19 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 MTL ohlcv.xlsx
@@ -8218,7 +8218,7 @@
         <v>-443681.4387684902</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-684979.0341382301</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-684979.0341382301</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-685179.0341382301</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-702486.2049382301</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-723500.3032382298</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-723500.3032382298</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-687518.4932382298</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-687518.4932382298</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-687518.4932382298</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-625943.3559382298</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-631288.4648382298</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-635191.7630382298</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-641687.0465382298</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-654973.0951382298</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-780758.77173823</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-775459.70493823</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-775459.70493823</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-775459.70493823</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-772711.59543823</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-853826.2208382299</v>
       </c>
       <c r="H664">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-853826.2208382299</v>
       </c>
       <c r="H665">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-861285.1548382299</v>
       </c>
       <c r="H666">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-851161.11773823</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-849126.6353382301</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-871090.8975382301</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-870879.1607382301</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-864317.19763823</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-864317.19763823</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
